--- a/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-51,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,96</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-20,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>-16,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-51,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-23,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>-19,15%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 5,02</t>
+          <t>-71,87; -30,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -5,47</t>
+          <t>-22,67; 43,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,04</t>
+          <t>-48,39; 7,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 16,06</t>
+          <t>-46,53; 21,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 7,56</t>
+          <t>-71,87; -30,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -7,01</t>
+          <t>-28,59; 103,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 10,24</t>
+          <t>-55,89; 8,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 21,53</t>
+          <t>-50,66; 29,46</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-13,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-6,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-17,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>9,67%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 7,28</t>
+          <t>-14,43; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 2,75</t>
+          <t>-23,54; -5,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 7,69</t>
+          <t>-11,94; 7,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 7,78</t>
+          <t>-0,61; 16,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 11,12</t>
+          <t>-18,87; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 3,27</t>
+          <t>-29,18; -7,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 10,49</t>
+          <t>-15,84; 10,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 9,45</t>
+          <t>-0,71; 21,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-51,65</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,5</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,9</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,65%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-10,48%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,87; -30,26</t>
+          <t>-13,28; 9,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 43,52</t>
+          <t>-8,37; 14,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 7,59</t>
+          <t>-5,69; 16,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 21,64</t>
+          <t>-19,97; 1,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,87; -30,26</t>
+          <t>-16,78; 14,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 103,54</t>
+          <t>-10,61; 22,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 8,44</t>
+          <t>-7,2; 25,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 29,46</t>
+          <t>-23,71; 1,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 9,67</t>
+          <t>-17,75; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 14,56</t>
+          <t>-17,42; 2,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 16,49</t>
+          <t>-11,35; 7,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 1,48</t>
+          <t>-8,52; 7,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 14,97</t>
+          <t>-23,98; 11,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 22,58</t>
+          <t>-20,29; 3,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 25,27</t>
+          <t>-13,39; 10,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 1,79</t>
+          <t>-9,38; 9,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-71,87; -30,26</t>
+          <t>-73,04; -31,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 43,52</t>
+          <t>-25,58; 43,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 7,59</t>
+          <t>-47,83; 7,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,87; -30,26</t>
+          <t>-73,04; -31,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 103,54</t>
+          <t>-28,23; 135,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 8,44</t>
+          <t>-53,72; 8,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 16,27</t>
+          <t>-11,5; 15,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 21,39</t>
+          <t>-4,0; 21,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 2,75</t>
+          <t>-24,61; 2,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 7,42</t>
+          <t>-14,24; 7,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 28,87</t>
+          <t>-16,4; 26,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 36,64</t>
+          <t>-5,31; 37,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 3,45</t>
+          <t>-29,75; 2,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 9,33</t>
+          <t>-15,73; 9,43</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 5,02</t>
+          <t>-14,46; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -5,47</t>
+          <t>-23,41; -4,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 7,04</t>
+          <t>-12,3; 7,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 16,06</t>
+          <t>-0,73; 16,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 7,56</t>
+          <t>-18,77; 7,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -7,01</t>
+          <t>-28,31; -6,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 10,24</t>
+          <t>-15,92; 11,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 21,53</t>
+          <t>-0,75; 22,31</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 9,67</t>
+          <t>-12,32; 9,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 14,56</t>
+          <t>-8,92; 13,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 16,49</t>
+          <t>-4,79; 17,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 1,48</t>
+          <t>-19,29; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 14,97</t>
+          <t>-15,81; 14,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 22,58</t>
+          <t>-11,62; 20,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 25,27</t>
+          <t>-6,15; 26,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 1,79</t>
+          <t>-23,01; 3,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 7,28</t>
+          <t>-17,95; 5,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 2,75</t>
+          <t>-17,81; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 7,69</t>
+          <t>-11,23; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 7,78</t>
+          <t>-8,56; 7,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 11,12</t>
+          <t>-24,42; 9,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 3,27</t>
+          <t>-20,54; 2,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 10,49</t>
+          <t>-13,17; 9,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 9,45</t>
+          <t>-9,39; 9,23</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 0,12</t>
+          <t>-10,63; 0,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,63</t>
+          <t>-9,13; 1,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 2,89</t>
+          <t>-7,49; 3,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,57</t>
+          <t>-5,62; 4,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 0,12</t>
+          <t>-14,42; 0,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 2,29</t>
+          <t>-11,71; 2,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 3,96</t>
+          <t>-9,6; 4,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,7</t>
+          <t>-6,59; 4,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-73,04; -31,91</t>
+          <t>-70,3; -28,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 43,68</t>
+          <t>-22,46; 43,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,83; 7,09</t>
+          <t>-47,6; 8,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 21,64</t>
+          <t>-46,85; 20,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,04; -31,91</t>
+          <t>-70,3; -28,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 135,67</t>
+          <t>-27,61; 113,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 8,95</t>
+          <t>-53,72; 10,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 29,46</t>
+          <t>-51,7; 25,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 15,22</t>
+          <t>-10,89; 16,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 21,76</t>
+          <t>-4,25; 22,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 2,28</t>
+          <t>-24,25; 3,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 7,65</t>
+          <t>-14,59; 8,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 26,37</t>
+          <t>-15,16; 28,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 37,04</t>
+          <t>-5,96; 38,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 2,7</t>
+          <t>-30,03; 4,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 9,43</t>
+          <t>-16,01; 10,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 4,54</t>
+          <t>-13,77; 3,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -4,91</t>
+          <t>-22,92; -3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 7,42</t>
+          <t>-11,86; 8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 16,42</t>
+          <t>-1,35; 15,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 7,03</t>
+          <t>-18,15; 5,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,31; -6,67</t>
+          <t>-27,71; -5,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 11,02</t>
+          <t>-15,57; 11,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 22,31</t>
+          <t>-1,58; 20,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 9,92</t>
+          <t>-12,84; 11,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 13,38</t>
+          <t>-8,44; 14,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 17,34</t>
+          <t>-4,81; 17,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 3,07</t>
+          <t>-21,44; 2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 14,73</t>
+          <t>-16,06; 17,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 20,2</t>
+          <t>-10,8; 22,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 26,95</t>
+          <t>-5,77; 26,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 3,95</t>
+          <t>-25,23; 3,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 5,91</t>
+          <t>-17,45; 4,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 2,54</t>
+          <t>-17,54; 2,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 7,51</t>
+          <t>-11,46; 7,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 7,73</t>
+          <t>-8,23; 7,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 9,15</t>
+          <t>-23,63; 7,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 2,61</t>
+          <t>-19,88; 2,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 9,89</t>
+          <t>-13,88; 10,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 9,23</t>
+          <t>-9,12; 8,74</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 0,66</t>
+          <t>-10,87; -0,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1,69</t>
+          <t>-8,95; 1,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,06</t>
+          <t>-7,77; 2,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 4,03</t>
+          <t>-5,42; 4,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 0,66</t>
+          <t>-14,96; -0,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 2,22</t>
+          <t>-11,52; 2,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 4,2</t>
+          <t>-9,86; 3,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,98</t>
+          <t>-6,36; 5,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C01-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-51,65</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,5</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,9</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-51,65%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-6,09%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-70,3; -28,5</t>
+          <t>-20,86; 3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 43,71</t>
+          <t>-3,67; 20,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-47,6; 8,87</t>
+          <t>-27,24; -1,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 20,01</t>
+          <t>-17,74; 6,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,3; -28,5</t>
+          <t>-26,7; 6,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 113,52</t>
+          <t>-5,34; 34,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 10,52</t>
+          <t>-32,34; -2,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 25,94</t>
+          <t>-19,42; 8,07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>-13,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,28</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>-6,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>-17,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 16,29</t>
+          <t>-14,43; 5,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 22,77</t>
+          <t>-23,54; -5,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 3,42</t>
+          <t>-11,94; 7,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 8,36</t>
+          <t>-0,15; 16,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 28,34</t>
+          <t>-18,87; 7,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 38,12</t>
+          <t>-29,18; -7,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 4,74</t>
+          <t>-15,84; 10,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 10,86</t>
+          <t>-0,13; 22,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,96</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,75%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>-10,97%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 3,98</t>
+          <t>-13,28; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,92; -3,79</t>
+          <t>-8,37; 14,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 8,05</t>
+          <t>-5,69; 16,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 15,41</t>
+          <t>-20,86; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 5,9</t>
+          <t>-16,78; 14,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,71; -5,08</t>
+          <t>-10,61; 22,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 11,91</t>
+          <t>-7,2; 25,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 20,91</t>
+          <t>-25,11; 1,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>-9,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>0,11%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 11,56</t>
+          <t>-17,75; 7,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 14,77</t>
+          <t>-17,42; 2,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 17,17</t>
+          <t>-11,35; 7,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 2,7</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 17,2</t>
+          <t>-23,98; 11,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 22,41</t>
+          <t>-20,29; 3,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 26,44</t>
+          <t>-13,39; 10,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,23; 3,74</t>
+          <t>-8,99; 9,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>-5,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 4,72</t>
+          <t>-10,68; 0,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 2,22</t>
+          <t>-8,99; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 7,99</t>
+          <t>-7,57; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 7,32</t>
+          <t>-5,42; 4,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 7,82</t>
+          <t>-14,6; 0,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 2,68</t>
+          <t>-11,43; 2,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 10,62</t>
+          <t>-9,64; 3,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 8,74</t>
+          <t>-6,43; 5,69</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,21</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,85</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,3%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-5,06%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-3,09%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-10,87; -0,2</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 1,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 2,83</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 4,47</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-14,96; -0,31</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 2,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-9,86; 3,88</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 5,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
